--- a/TP2/Cuentas y graficos/Ejercicio1.xlsx
+++ b/TP2/Cuentas y graficos/Ejercicio1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malemuller/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa-m\InformesLabo\TP2\Cuentas y graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85FF441-3E67-4F0B-BAC8-68E0E5389DCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Q</t>
   </si>
@@ -43,12 +44,15 @@
   <si>
     <t>inductancia negativa es porque el analizador de impedancias no distingue que es. Ya no se comporta como bobina.</t>
   </si>
+  <si>
+    <t>Asumiendo que la corriente que circula por el capacitor es muy grande, cuando el Q es muy grande significa que L casi no tiene R , sin embargo puedo hacerl a cuenta para obtener R tambien</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,6 +63,21 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,10 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,6 +118,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -364,16 +388,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -390,7 +414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -407,7 +431,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.05</v>
       </c>
@@ -424,7 +448,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -441,7 +465,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -458,7 +482,7 @@
         <v>73.41</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -475,7 +499,7 @@
         <v>81.37</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -492,7 +516,7 @@
         <v>88.09</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10</v>
       </c>
@@ -509,24 +533,27 @@
         <v>88.96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>50</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>106.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>2.8</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>89.46</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>100</v>
       </c>
@@ -542,8 +569,9 @@
       <c r="E10">
         <v>89.33</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>500</v>
       </c>
@@ -560,7 +588,7 @@
         <v>88.45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -577,7 +605,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1005</v>
       </c>
@@ -603,7 +631,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1010</v>
       </c>
@@ -620,7 +648,7 @@
         <v>87.65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1050</v>
       </c>
@@ -637,7 +665,7 @@
         <v>87.52</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1100</v>
       </c>
@@ -654,7 +682,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1500</v>
       </c>
@@ -671,7 +699,7 @@
         <v>81.84</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1550</v>
       </c>
@@ -688,7 +716,7 @@
         <v>78.92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1600</v>
       </c>
@@ -708,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1650</v>
       </c>
@@ -725,7 +753,7 @@
         <v>72.739999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1685</v>
       </c>
@@ -742,7 +770,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1686</v>
       </c>
@@ -759,7 +787,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1687</v>
       </c>
@@ -776,7 +804,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1690</v>
       </c>
@@ -793,7 +821,7 @@
         <v>-8.3000000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1750</v>
       </c>
@@ -810,7 +838,7 @@
         <v>-66.8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1900</v>
       </c>
@@ -827,7 +855,7 @@
         <v>-82.53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2000</v>
       </c>
@@ -844,7 +872,7 @@
         <v>-84.75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>5000</v>
       </c>
@@ -861,7 +889,7 @@
         <v>-89.07</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5500</v>
       </c>
@@ -878,7 +906,7 @@
         <v>-89.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>10000</v>
       </c>
@@ -895,31 +923,32 @@
         <v>-89.22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TP2/Cuentas y graficos/Ejercicio1.xlsx
+++ b/TP2/Cuentas y graficos/Ejercicio1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa-m\InformesLabo\TP2\Cuentas y graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85FF441-3E67-4F0B-BAC8-68E0E5389DCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4DDA80-5D04-44BB-9B10-16209B53515B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -755,197 +755,377 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1685</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.9</v>
+        <v>1660</v>
+      </c>
+      <c r="B21">
+        <v>10.4</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>304000</v>
+        <v>236000</v>
       </c>
       <c r="E21">
-        <v>1.9</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>1686</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.3</v>
+        <v>1665</v>
+      </c>
+      <c r="B22">
+        <v>8.1999999999999993</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>305000</v>
+        <v>260000</v>
       </c>
       <c r="E22">
-        <v>0.6</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>1687</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-0.9</v>
+        <v>1670</v>
+      </c>
+      <c r="B23">
+        <v>4.5999999999999996</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>305000</v>
+        <v>282000</v>
       </c>
       <c r="E23">
-        <v>-1.7</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1690</v>
-      </c>
-      <c r="B24" s="1">
-        <v>-4.0999999999999996</v>
+        <v>1675</v>
+      </c>
+      <c r="B24">
+        <v>0.1</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>299000</v>
+        <v>292000</v>
       </c>
       <c r="E24">
-        <v>-8.3000000000000007</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1750</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-10.1</v>
+        <v>1680</v>
+      </c>
+      <c r="B25">
+        <v>-4.4000000000000004</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>48000</v>
+        <v>284000</v>
       </c>
       <c r="E25">
-        <v>-66.8</v>
+        <v>-9.1999999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>1900</v>
-      </c>
-      <c r="B26" s="1">
-        <v>-3.37</v>
+        <v>1685</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.9</v>
       </c>
       <c r="C26">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>5270</v>
+        <v>304000</v>
       </c>
       <c r="E26">
-        <v>-82.53</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2000</v>
-      </c>
-      <c r="B27" s="1">
-        <v>-2.2490000000000001</v>
+        <v>1686</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.3</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>2580</v>
+        <v>305000</v>
       </c>
       <c r="E27">
-        <v>-84.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>5000</v>
+        <v>1687</v>
       </c>
       <c r="B28" s="1">
-        <v>-0.1192</v>
+        <v>-0.9</v>
       </c>
       <c r="C28">
-        <v>61.4</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>61</v>
+        <v>305000</v>
       </c>
       <c r="E28">
-        <v>-89.07</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>5500</v>
+        <v>1690</v>
       </c>
       <c r="B29" s="1">
-        <v>-9.64E-2</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="C29">
-        <v>64.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>52</v>
+        <v>299000</v>
       </c>
       <c r="E29">
-        <v>-89.11</v>
+        <v>-8.3000000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
+        <v>1695</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-12.8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>199000</v>
+      </c>
+      <c r="E30">
+        <v>-34.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1700</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-13.6</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>167000</v>
+      </c>
+      <c r="E31">
+        <v>-40.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1705</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-13.7</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>141000</v>
+      </c>
+      <c r="E32">
+        <v>-46.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1710</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-13.4</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>119000</v>
+      </c>
+      <c r="E33">
+        <v>-50.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1720</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-12.3</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>85000</v>
+      </c>
+      <c r="E34">
+        <v>-57.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1730</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-11.1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>63000</v>
+      </c>
+      <c r="E35">
+        <v>-62.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1740</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-9.9</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>48000</v>
+      </c>
+      <c r="E36">
+        <v>-66.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1750</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-10.1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>48000</v>
+      </c>
+      <c r="E37">
+        <v>-66.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1900</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-3.37</v>
+      </c>
+      <c r="C38">
+        <v>7.6</v>
+      </c>
+      <c r="D38">
+        <v>5270</v>
+      </c>
+      <c r="E38">
+        <v>-82.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2000</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-2.2490000000000001</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>2580</v>
+      </c>
+      <c r="E39">
+        <v>-84.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>5000</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-0.1192</v>
+      </c>
+      <c r="C40">
+        <v>61.4</v>
+      </c>
+      <c r="D40">
+        <v>61</v>
+      </c>
+      <c r="E40">
+        <v>-89.07</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>5500</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-9.64E-2</v>
+      </c>
+      <c r="C41">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D41">
+        <v>52</v>
+      </c>
+      <c r="E41">
+        <v>-89.11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>10000</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B42" s="1">
         <v>-2.741E-2</v>
       </c>
-      <c r="C30">
+      <c r="C42">
         <v>73.599999999999994</v>
       </c>
-      <c r="D30">
+      <c r="D42">
         <v>23</v>
       </c>
-      <c r="E30">
+      <c r="E42">
         <v>-89.22</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TP2/Cuentas y graficos/Ejercicio1.xlsx
+++ b/TP2/Cuentas y graficos/Ejercicio1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa-m\InformesLabo\TP2\Cuentas y graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4DDA80-5D04-44BB-9B10-16209B53515B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569D23A5-F9F1-4D6D-9FF7-1E46EDFB0D8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,22 +30,22 @@
     <t>Q</t>
   </si>
   <si>
-    <t>frec kHz</t>
-  </si>
-  <si>
-    <t>L mH</t>
-  </si>
-  <si>
-    <t>R ohms</t>
-  </si>
-  <si>
-    <t>phi deg</t>
-  </si>
-  <si>
     <t>inductancia negativa es porque el analizador de impedancias no distingue que es. Ya no se comporta como bobina.</t>
   </si>
   <si>
     <t>Asumiendo que la corriente que circula por el capacitor es muy grande, cuando el Q es muy grande significa que L casi no tiene R , sin embargo puedo hacerl a cuenta para obtener R tambien</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Phi</t>
   </si>
 </sst>
 </file>
@@ -391,27 +391,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -550,7 +550,7 @@
         <v>89.46</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -733,7 +733,7 @@
         <v>72.73</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
